--- a/pred_ohlcv/54_21/2019-10-14 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-36321.18947616</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-36321.18947616</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-40255.85877616</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-47452.60977616</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-48438.36287616</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-48950.61677616</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-46251.81287616</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>17865.47487244999</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>15001.19717244999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>16073.54027244999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>16073.54027244999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>11152.28947244999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>11063.42887244999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1018.550627550008</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1041.800327550008</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-604.5308275500084</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-604.5308275500084</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-844.5308275500084</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3286.425672449991</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>5809.182272449992</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5769.782872449991</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5769.782872449991</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>492.1511724499915</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>379.6572724499915</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-68134.44970405001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-72305.44970405001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-65573.41780405001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-67944.21920405001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-67944.21920405001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-67570.84550405001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-67570.84550405001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-109679.06460405</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-39182.20200405004</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-31025.00830405004</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-31025.00830405004</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-34096.39300405004</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-33969.49520405004</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-33969.49520405004</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-33712.49520405004</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-32962.49520405004</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-32812.49520405004</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-65994.70460405004</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-65994.70460405004</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-69960.10890405004</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-69960.10890405004</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-68914.18690405003</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-68914.18690405003</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-71227.14180405003</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-69829.99220405002</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-69829.99220405002</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-69829.99220405002</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-69829.99220405002</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-72129.99220405002</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-72120.99220405002</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-74057.52650405002</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-74057.52650405002</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-74046.51610405002</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-66187.28190405003</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-69432.15740405003</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-69432.15740405003</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-65993.15740405003</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-65993.15740405003</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-66271.15740405003</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-66271.15740405003</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-64171.15740405003</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-68916.14020405003</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-68902.59350405002</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-64227.38810405002</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-82798.26430405003</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-73381.06300405003</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-73714.68370405002</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-71263.29090405002</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-78656.34570405002</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-77227.36810405002</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-77222.90250405003</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-82222.90250405003</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-82222.90250405003</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-82221.72250405003</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-82883.29920405004</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-87696.81250405005</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-87696.81250405005</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-86756.64840405005</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-68704.43550405004</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-49869.23790405004</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-49869.23790405004</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-41617.04290405004</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-39328.26380405004</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-39550.80990405004</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-14 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-36321.18947616</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-36321.18947616</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-40255.85877616</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-47452.60977616</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-48438.36287616</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-48950.61677616</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-46251.81287616</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>11702.68487244999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>22151.93287244999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>17865.47487244999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>15001.19717244999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>16073.54027244999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>16073.54027244999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>11152.28947244999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>11063.42887244999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1018.550627550008</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1041.800327550008</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-604.5308275500084</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-604.5308275500084</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5769.782872449991</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-68134.44970405001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-72305.44970405001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-65573.41780405001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-67944.21920405001</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-67944.21920405001</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-67570.84550405001</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-67570.84550405001</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-95736.05400405002</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-102453.21900405</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-106327.52570405</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-106275.52570405</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-106317.12640405</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-106317.12640405</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-101252.78760405</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-101252.78760405</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-101863.95640405</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-100577.10840405</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-101334.50740405</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-102382.36500405</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-101040.36510405</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-98302.98680405003</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-98340.64000405003</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-95768.70010405003</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-96702.12890405003</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-96702.12890405003</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-103086.75910405</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-103086.75910405</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-105662.26460405</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-105662.26460405</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-105662.26460405</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-109679.06460405</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-39182.20200405004</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-46014.69770405004</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-46014.69770405004</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-46013.69770405004</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-31025.00830405004</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-31025.00830405004</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-34096.39300405004</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-33969.49520405004</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-33969.49520405004</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-33712.49520405004</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-32962.49520405004</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-32812.49520405004</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-65994.70460405004</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-65994.70460405004</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-66187.28190405003</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-69432.15740405003</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-69432.15740405003</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-65993.15740405003</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-65993.15740405003</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-66271.15740405003</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-66271.15740405003</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-64171.15740405003</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-64171.15740405003</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-68916.14020405003</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-68902.59350405002</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-64227.38810405002</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-82798.26430405003</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-73381.06300405003</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-73714.68370405002</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-71263.29090405002</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-78656.34570405002</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-77227.36810405002</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-77222.90250405003</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-82222.90250405003</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-82222.90250405003</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-82221.72250405003</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-82883.29920405004</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-87696.81250405005</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-87696.81250405005</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-86756.64840405005</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-68704.43550405004</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-49869.23790405004</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-49869.23790405004</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-41617.04290405004</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-39328.26380405004</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-39550.80990405004</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
